--- a/biology/Médecine/1173_en_santé_et_médecine/1173_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1173_en_santé_et_médecine/1173_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1173_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1173_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1173 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1173_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1173_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frédéric de Pluvoise, évêque de Metz, fonde à Sarrebourg en Lorraine sous le patronage de saint Nicolas « un hospice destiné à l'accueil, notamment, de voyageurs pauvres » et qui est à l'une des origines de l'actuel centre hospitalier de la ville[1].
-Fondation à Correggio, en Italie, par Alberto, seigneur du lieu, d'un hôpital placé sous l'invocation des saints Barthélemy, Thomas et Quirin[2].
-À la sortie occidentale de Sarrebourg, en Lorraine, mention d'une maison de refuge ou hôpital, sous le terme de « Elendskapelle », qui peut se traduire par « chapelle des malades » ou « des lépreux[3] ».
-À Londres, une annexe du prieuré augustinien de St. Mary Overie est renommée Hospital of St. Thomas the Martyr à l'occasion de la canonisation de Thomas Becket[4],[5].
-Vers 1173 : fondation de la léproserie de Southampton dans le comté de Hampshire en Angleterre[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Frédéric de Pluvoise, évêque de Metz, fonde à Sarrebourg en Lorraine sous le patronage de saint Nicolas « un hospice destiné à l'accueil, notamment, de voyageurs pauvres » et qui est à l'une des origines de l'actuel centre hospitalier de la ville.
+Fondation à Correggio, en Italie, par Alberto, seigneur du lieu, d'un hôpital placé sous l'invocation des saints Barthélemy, Thomas et Quirin.
+À la sortie occidentale de Sarrebourg, en Lorraine, mention d'une maison de refuge ou hôpital, sous le terme de « Elendskapelle », qui peut se traduire par « chapelle des malades » ou « des lépreux ».
+À Londres, une annexe du prieuré augustinien de St. Mary Overie est renommée Hospital of St. Thomas the Martyr à l'occasion de la canonisation de Thomas Becket,.
+Vers 1173 : fondation de la léproserie de Southampton dans le comté de Hampshire en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1173_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1173_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin cité dans une charte de l'abbaye des Vaux-de-Cernay[7].
-Fl. Guillaume, médecin cité dans une charte de l'abbaye Saint-Lucien de Beauvais[7].
-1173-1184 ? : fl. Guillaume Pons, médecin à Montpellier[7].
-1173-1186 : fl. Guillaume de Gap, médecin et moine de l'abbaye de Saint-Denis[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin cité dans une charte de l'abbaye des Vaux-de-Cernay.
+Fl. Guillaume, médecin cité dans une charte de l'abbaye Saint-Lucien de Beauvais.
+1173-1184 ? : fl. Guillaume Pons, médecin à Montpellier.
+1173-1186 : fl. Guillaume de Gap, médecin et moine de l'abbaye de Saint-Denis.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1173_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1173_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hugues de Fouilloy (né vers1100), auteur d'un « texte remarquable, bien qu'inachevé[8] » sur l’étiologie et le traitement des troubles mentaux, le De medicina animae (« De la médecine de l'âme »), rédigé entre 1125 et 1132.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugues de Fouilloy (né vers1100), auteur d'un « texte remarquable, bien qu'inachevé » sur l’étiologie et le traitement des troubles mentaux, le De medicina animae (« De la médecine de l'âme »), rédigé entre 1125 et 1132.
 </t>
         </is>
       </c>
